--- a/static/user_input/input_ashford_medicine.xlsx
+++ b/static/user_input/input_ashford_medicine.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vig/Data/Programming/Python/Rota converter/WHH F1 rota/Input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vig/Data/Programming/WebDev/F1-rota-converter/static/user_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB600CAB-58C4-F345-84FA-8C2E19D82421}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58015095-FAD3-D84C-B5D5-4EAC0CF79A67}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="1060" windowWidth="23260" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="1060" windowWidth="32720" windowHeight="18020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dec 18-April 19" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="62">
   <si>
     <t>RESP</t>
   </si>
@@ -56,296 +56,6 @@
   </si>
   <si>
     <t>Day</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  FY1                      POST 1                      </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(8629)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">FY1             POST 2 (8890)                            </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">FY1               POST 3             </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(8644)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">FY1               POST 4  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(8643)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">FY1                               POST 5           </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(8648)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">FY1                 POST 6               </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(8626)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">FY1                                         POST 7 (8961)                </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">FY1             POST 8             </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(8614)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">FY1                                    POST 9                       </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(8634)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">FY1                                    POST 10                       </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(8634)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">FY1                 POST 11                         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(8623)</t>
-    </r>
-  </si>
-  <si>
-    <t>FY1                     POST 12             (8558)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">FY1                    POST 13 (8558)             </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">FY1                 POST 14                       </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(8641)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">FY1            POST 15       </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                      </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(8674)</t>
-    </r>
   </si>
   <si>
     <t>FY1    POST NO:</t>
@@ -458,6 +168,48 @@
   <si>
     <t>Haibo Li</t>
   </si>
+  <si>
+    <t>Vignesh</t>
+  </si>
+  <si>
+    <t>Francesca</t>
+  </si>
+  <si>
+    <t>Mario</t>
+  </si>
+  <si>
+    <t>Priya</t>
+  </si>
+  <si>
+    <t>Haibo</t>
+  </si>
+  <si>
+    <t>Thurkka</t>
+  </si>
+  <si>
+    <t>Chang</t>
+  </si>
+  <si>
+    <t>Remi</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Lucy</t>
+  </si>
+  <si>
+    <t>Zack</t>
+  </si>
+  <si>
+    <t>Karla</t>
+  </si>
+  <si>
+    <t>Suhail</t>
+  </si>
+  <si>
+    <t>Kem</t>
+  </si>
 </sst>
 </file>
 
@@ -466,22 +218,8 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh&quot;:&quot;mm"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -715,12 +453,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -728,7 +466,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -743,12 +481,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1093,7 +831,7 @@
   <dimension ref="A1:AD142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1180,7 +918,7 @@
       </c>
       <c r="Y1" s="4"/>
     </row>
-    <row r="2" spans="1:30" ht="85" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="132" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -1188,62 +926,62 @@
         <v>10</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="8" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="8" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="J2" s="11"/>
       <c r="K2" s="8" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="N2" s="9"/>
       <c r="O2" s="8" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="R2" s="11"/>
       <c r="S2" s="10" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="U2" s="9"/>
       <c r="V2" s="8" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="W2" s="9"/>
       <c r="X2" s="8" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="Z2" s="13" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="AA2" s="13" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
@@ -1251,30 +989,30 @@
         <v>43439</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="16" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
       <c r="L3" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="M3" s="16"/>
       <c r="N3" s="16"/>
       <c r="O3" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P3" s="16"/>
       <c r="Q3" s="16"/>
@@ -1289,7 +1027,7 @@
         <v>1</v>
       </c>
       <c r="AA3" s="18" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
@@ -1297,15 +1035,15 @@
         <v>43440</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
@@ -1313,12 +1051,12 @@
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
       <c r="L4" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="M4" s="16"/>
       <c r="N4" s="16"/>
       <c r="O4" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P4" s="16"/>
       <c r="Q4" s="16"/>
@@ -1330,13 +1068,13 @@
       <c r="W4" s="16"/>
       <c r="X4" s="16"/>
       <c r="Y4" s="12" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="Z4" s="5">
         <v>2</v>
       </c>
       <c r="AA4" s="19" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
@@ -1344,30 +1082,30 @@
         <v>43441</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
       <c r="L5" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M5" s="16"/>
       <c r="N5" s="16"/>
       <c r="O5" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="P5" s="16"/>
       <c r="Q5" s="16"/>
@@ -1382,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="AA5" s="18" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
@@ -1390,10 +1128,10 @@
         <v>43442</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="16"/>
@@ -1404,7 +1142,7 @@
       <c r="J6" s="16"/>
       <c r="K6" s="22"/>
       <c r="L6" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="M6" s="22"/>
       <c r="N6" s="16"/>
@@ -1413,12 +1151,12 @@
       <c r="Q6" s="22"/>
       <c r="R6" s="16"/>
       <c r="S6" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="T6" s="22"/>
       <c r="U6" s="16"/>
       <c r="V6" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="W6" s="16"/>
       <c r="X6" s="22"/>
@@ -1426,7 +1164,7 @@
         <v>4</v>
       </c>
       <c r="AA6" s="18" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
@@ -1434,10 +1172,10 @@
         <v>43443</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="16"/>
@@ -1448,7 +1186,7 @@
       <c r="J7" s="16"/>
       <c r="K7" s="22"/>
       <c r="L7" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="M7" s="22"/>
       <c r="N7" s="16"/>
@@ -1457,12 +1195,12 @@
       <c r="Q7" s="22"/>
       <c r="R7" s="16"/>
       <c r="S7" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="T7" s="22"/>
       <c r="U7" s="16"/>
       <c r="V7" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="W7" s="16"/>
       <c r="X7" s="22"/>
@@ -1470,7 +1208,7 @@
         <v>5</v>
       </c>
       <c r="AA7" s="18" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
@@ -1478,43 +1216,43 @@
         <v>43444</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="M8" s="16"/>
       <c r="N8" s="16"/>
       <c r="O8" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="P8" s="16"/>
       <c r="Q8" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="R8" s="16"/>
       <c r="S8" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="T8" s="16"/>
       <c r="U8" s="16"/>
       <c r="V8" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="W8" s="16"/>
       <c r="X8" s="16"/>
@@ -1522,7 +1260,7 @@
         <v>6</v>
       </c>
       <c r="AA8" s="18" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
@@ -1530,56 +1268,56 @@
         <v>43445</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="M9" s="16"/>
       <c r="N9" s="16"/>
       <c r="O9" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
       <c r="S9" s="16"/>
       <c r="T9" s="16" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
       <c r="W9" s="16"/>
       <c r="X9" s="16"/>
       <c r="Y9" s="12" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="Z9" s="5">
         <v>7</v>
       </c>
       <c r="AA9" s="18" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="AC9" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="AD9" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
@@ -1587,30 +1325,30 @@
         <v>43446</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
       <c r="L10" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M10" s="16"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
@@ -1625,7 +1363,7 @@
         <v>8</v>
       </c>
       <c r="AA10" s="18" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
@@ -1633,30 +1371,30 @@
         <v>43447</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
       <c r="L11" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M11" s="16"/>
       <c r="N11" s="16"/>
       <c r="O11" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
@@ -1671,10 +1409,10 @@
         <v>9</v>
       </c>
       <c r="AA11" s="37" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="AD11" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
@@ -1682,30 +1420,30 @@
         <v>43448</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
       <c r="L12" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="M12" s="16"/>
       <c r="N12" s="16"/>
       <c r="O12" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
@@ -1720,7 +1458,7 @@
         <v>10</v>
       </c>
       <c r="AA12" s="38" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
@@ -1728,22 +1466,22 @@
         <v>43449</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
       <c r="E13" s="25"/>
       <c r="F13" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I13" s="21"/>
       <c r="J13" s="25"/>
       <c r="K13" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="L13" s="22"/>
       <c r="M13" s="22"/>
@@ -1751,7 +1489,7 @@
       <c r="O13" s="22"/>
       <c r="P13" s="21"/>
       <c r="Q13" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="R13" s="16"/>
       <c r="S13" s="21"/>
@@ -1764,7 +1502,7 @@
         <v>11</v>
       </c>
       <c r="AA13" s="39" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
@@ -1772,22 +1510,22 @@
         <v>43450</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
       <c r="E14" s="16"/>
       <c r="F14" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I14" s="22"/>
       <c r="J14" s="16"/>
       <c r="K14" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="L14" s="22"/>
       <c r="M14" s="22"/>
@@ -1795,7 +1533,7 @@
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
       <c r="Q14" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="R14" s="16"/>
       <c r="S14" s="22"/>
@@ -1808,10 +1546,10 @@
         <v>12</v>
       </c>
       <c r="AA14" s="40" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD14" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
@@ -1819,43 +1557,43 @@
         <v>43451</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="J15" s="16"/>
       <c r="K15" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="M15" s="16"/>
       <c r="N15" s="16"/>
       <c r="O15" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="P15" s="16"/>
       <c r="Q15" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
       <c r="T15" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="U15" s="16"/>
       <c r="V15" s="16"/>
@@ -1865,7 +1603,7 @@
         <v>13</v>
       </c>
       <c r="AA15" s="18" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
@@ -1873,25 +1611,25 @@
         <v>43452</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
       <c r="L16" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="M16" s="16"/>
       <c r="N16" s="16"/>
@@ -1901,7 +1639,7 @@
       <c r="R16" s="16"/>
       <c r="S16" s="16"/>
       <c r="T16" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="U16" s="16"/>
       <c r="V16" s="16"/>
@@ -1911,7 +1649,7 @@
         <v>14</v>
       </c>
       <c r="AA16" s="18" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.2">
@@ -1919,27 +1657,27 @@
         <v>43453</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G17" s="16"/>
       <c r="H17" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
       <c r="L17" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="M17" s="16"/>
       <c r="N17" s="16"/>
@@ -1949,7 +1687,7 @@
       <c r="R17" s="16"/>
       <c r="S17" s="16"/>
       <c r="T17" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="U17" s="16"/>
       <c r="V17" s="16"/>
@@ -1959,7 +1697,7 @@
         <v>15</v>
       </c>
       <c r="AA17" s="18" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.2">
@@ -1967,25 +1705,25 @@
         <v>43454</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
       <c r="F18" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G18" s="16"/>
       <c r="H18" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
       <c r="L18" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
@@ -1995,7 +1733,7 @@
       <c r="R18" s="16"/>
       <c r="S18" s="16"/>
       <c r="T18" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="U18" s="16"/>
       <c r="V18" s="16"/>
@@ -2007,30 +1745,30 @@
         <v>43455</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
       <c r="F19" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G19" s="16"/>
       <c r="H19" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
       <c r="K19" s="16" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="M19" s="16" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
@@ -2039,14 +1777,14 @@
       <c r="R19" s="26"/>
       <c r="S19" s="16"/>
       <c r="T19" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="U19" s="26"/>
       <c r="V19" s="16"/>
       <c r="W19" s="16"/>
       <c r="X19" s="16"/>
       <c r="Z19" s="27" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="AA19" s="28"/>
     </row>
@@ -2055,10 +1793,10 @@
         <v>43456</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="16"/>
@@ -2066,7 +1804,7 @@
       <c r="G20" s="25"/>
       <c r="H20" s="22"/>
       <c r="I20" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="J20" s="16"/>
       <c r="K20" s="22"/>
@@ -2074,27 +1812,27 @@
       <c r="M20" s="22"/>
       <c r="N20" s="25"/>
       <c r="O20" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="P20" s="22"/>
       <c r="Q20" s="22"/>
       <c r="R20" s="16"/>
       <c r="S20" s="22"/>
       <c r="T20" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="U20" s="16"/>
       <c r="V20" s="22"/>
       <c r="W20" s="25"/>
       <c r="X20" s="22"/>
       <c r="Z20" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AA20" s="18" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AB20" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.2">
@@ -2102,10 +1840,10 @@
         <v>43457</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="16"/>
@@ -2113,7 +1851,7 @@
       <c r="G21" s="16"/>
       <c r="H21" s="22"/>
       <c r="I21" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="J21" s="16"/>
       <c r="K21" s="22"/>
@@ -2121,30 +1859,30 @@
       <c r="M21" s="22"/>
       <c r="N21" s="16"/>
       <c r="O21" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="P21" s="22"/>
       <c r="Q21" s="22"/>
       <c r="R21" s="16"/>
       <c r="S21" s="22"/>
       <c r="T21" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="U21" s="16"/>
       <c r="V21" s="22"/>
       <c r="W21" s="16"/>
       <c r="X21" s="22"/>
       <c r="Z21" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="AA21" s="18" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="AC21" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="AD21" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.2">
@@ -2152,56 +1890,56 @@
         <v>43458</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
       <c r="F22" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
       <c r="L22" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="M22" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N22" s="16"/>
       <c r="O22" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="P22" s="16"/>
       <c r="Q22" s="16"/>
       <c r="R22" s="16"/>
       <c r="S22" s="16"/>
       <c r="T22" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="U22" s="16"/>
       <c r="V22" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="W22" s="16"/>
       <c r="X22" s="16"/>
       <c r="Z22" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="AA22" s="18" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="AC22" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.2">
@@ -2209,26 +1947,26 @@
         <v>43459</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G23" s="16"/>
       <c r="H23" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
       <c r="M23" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N23" s="16"/>
       <c r="O23" s="16"/>
@@ -2237,17 +1975,17 @@
       <c r="R23" s="16"/>
       <c r="S23" s="16"/>
       <c r="T23" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="U23" s="16"/>
       <c r="V23" s="16"/>
       <c r="W23" s="16"/>
       <c r="X23" s="16"/>
       <c r="Z23" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="AA23" s="18" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="17" x14ac:dyDescent="0.2">
@@ -2255,26 +1993,26 @@
         <v>43460</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
       <c r="F24" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G24" s="16"/>
       <c r="H24" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="I24" s="30"/>
       <c r="J24" s="31"/>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
       <c r="M24" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="N24" s="16"/>
       <c r="O24" s="16"/>
@@ -2283,7 +2021,7 @@
       <c r="R24" s="16"/>
       <c r="S24" s="16"/>
       <c r="T24" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="U24" s="16"/>
       <c r="V24" s="30"/>
@@ -2291,7 +2029,7 @@
       <c r="X24" s="16"/>
       <c r="Z24" s="36"/>
       <c r="AA24" s="18" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="17" x14ac:dyDescent="0.2">
@@ -2299,26 +2037,26 @@
         <v>43461</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
       <c r="F25" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G25" s="16"/>
       <c r="H25" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="I25" s="30"/>
       <c r="J25" s="31"/>
       <c r="K25" s="16"/>
       <c r="L25" s="16"/>
       <c r="M25" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="N25" s="16"/>
       <c r="O25" s="16"/>
@@ -2327,7 +2065,7 @@
       <c r="R25" s="16"/>
       <c r="S25" s="16"/>
       <c r="T25" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="U25" s="16"/>
       <c r="V25" s="30"/>
@@ -2335,7 +2073,7 @@
       <c r="X25" s="16"/>
       <c r="Z25" s="22"/>
       <c r="AA25" s="18" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.2">
@@ -2343,26 +2081,26 @@
         <v>43462</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G26" s="16"/>
       <c r="H26" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
       <c r="M26" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N26" s="16"/>
       <c r="O26" s="16"/>
@@ -2371,7 +2109,7 @@
       <c r="R26" s="16"/>
       <c r="S26" s="16"/>
       <c r="T26" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="U26" s="16"/>
       <c r="V26" s="16"/>
@@ -2379,7 +2117,7 @@
       <c r="X26" s="16"/>
       <c r="Z26" s="12"/>
       <c r="AA26" s="12" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.2">
@@ -2387,7 +2125,7 @@
         <v>43463</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -2395,16 +2133,16 @@
       <c r="F27" s="22"/>
       <c r="G27" s="16"/>
       <c r="H27" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I27" s="22"/>
       <c r="J27" s="16"/>
       <c r="K27" s="22"/>
       <c r="L27" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="M27" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N27" s="16"/>
       <c r="O27" s="22"/>
@@ -2415,13 +2153,13 @@
       <c r="T27" s="22"/>
       <c r="U27" s="16"/>
       <c r="V27" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="W27" s="16"/>
       <c r="X27" s="22"/>
       <c r="Z27" s="12"/>
       <c r="AA27" s="12" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.2">
@@ -2429,7 +2167,7 @@
         <v>43464</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
@@ -2437,16 +2175,16 @@
       <c r="F28" s="22"/>
       <c r="G28" s="16"/>
       <c r="H28" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I28" s="22"/>
       <c r="J28" s="16"/>
       <c r="K28" s="22"/>
       <c r="L28" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="M28" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N28" s="16"/>
       <c r="O28" s="22"/>
@@ -2457,12 +2195,12 @@
       <c r="T28" s="22"/>
       <c r="U28" s="16"/>
       <c r="V28" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="W28" s="16"/>
       <c r="X28" s="22"/>
       <c r="AA28" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.2">
@@ -2470,45 +2208,45 @@
         <v>43465</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G29" s="16"/>
       <c r="H29" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
       <c r="L29" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="M29" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="N29" s="16"/>
       <c r="O29" s="16"/>
       <c r="P29" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q29" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="R29" s="16"/>
       <c r="S29" s="16"/>
       <c r="T29" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="U29" s="16"/>
       <c r="V29" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="W29" s="16"/>
       <c r="X29" s="16"/>
@@ -2518,42 +2256,42 @@
         <v>43466</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D30" s="26"/>
       <c r="E30" s="26"/>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
       <c r="H30" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="I30" s="26"/>
       <c r="J30" s="16"/>
       <c r="K30" s="16"/>
       <c r="L30" s="16"/>
       <c r="M30" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="N30" s="16"/>
       <c r="O30" s="16"/>
       <c r="P30" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q30" s="16"/>
       <c r="R30" s="16"/>
       <c r="S30" s="16"/>
       <c r="T30" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="U30" s="16"/>
       <c r="V30" s="26"/>
       <c r="W30" s="16"/>
       <c r="X30" s="16"/>
       <c r="AB30" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.2">
@@ -2561,35 +2299,35 @@
         <v>43467</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
       <c r="G31" s="31"/>
       <c r="H31" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I31" s="16"/>
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
       <c r="L31" s="16"/>
       <c r="M31" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N31" s="31"/>
       <c r="O31" s="30"/>
       <c r="P31" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="Q31" s="16"/>
       <c r="R31" s="16"/>
       <c r="S31" s="16"/>
       <c r="T31" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="U31" s="16"/>
       <c r="V31" s="16"/>
@@ -2601,35 +2339,35 @@
         <v>43468</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="31"/>
       <c r="H32" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
       <c r="L32" s="16"/>
       <c r="M32" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N32" s="31"/>
       <c r="O32" s="30"/>
       <c r="P32" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="Q32" s="16"/>
       <c r="R32" s="16"/>
       <c r="S32" s="16"/>
       <c r="T32" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="U32" s="16"/>
       <c r="V32" s="16"/>
@@ -2641,42 +2379,42 @@
         <v>43469</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
       <c r="H33" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
       <c r="K33" s="16"/>
       <c r="L33" s="16"/>
       <c r="M33" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="N33" s="16"/>
       <c r="O33" s="16"/>
       <c r="P33" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q33" s="16"/>
       <c r="R33" s="16"/>
       <c r="S33" s="16"/>
       <c r="T33" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="U33" s="16"/>
       <c r="V33" s="16"/>
       <c r="W33" s="16"/>
       <c r="X33" s="16"/>
       <c r="AA33" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
@@ -2684,13 +2422,13 @@
         <v>43470</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
       <c r="E34" s="16"/>
       <c r="F34" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G34" s="16"/>
       <c r="H34" s="22"/>
@@ -2702,15 +2440,15 @@
       <c r="N34" s="25"/>
       <c r="O34" s="22"/>
       <c r="P34" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q34" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="R34" s="16"/>
       <c r="S34" s="22"/>
       <c r="T34" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="U34" s="16"/>
       <c r="V34" s="21"/>
@@ -2722,13 +2460,13 @@
         <v>43471</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
       <c r="E35" s="16"/>
       <c r="F35" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G35" s="16"/>
       <c r="H35" s="22"/>
@@ -2740,15 +2478,15 @@
       <c r="N35" s="16"/>
       <c r="O35" s="22"/>
       <c r="P35" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q35" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="R35" s="16"/>
       <c r="S35" s="22"/>
       <c r="T35" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="U35" s="16"/>
       <c r="V35" s="21"/>
@@ -2760,43 +2498,43 @@
         <v>43472</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E36" s="16"/>
       <c r="F36" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G36" s="16"/>
       <c r="H36" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
       <c r="L36" s="16"/>
       <c r="M36" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N36" s="16"/>
       <c r="O36" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="P36" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="Q36" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="R36" s="16"/>
       <c r="S36" s="16"/>
       <c r="T36" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="U36" s="16"/>
       <c r="V36" s="16"/>
@@ -2808,42 +2546,42 @@
         <v>43473</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C37" s="16"/>
       <c r="D37" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
       <c r="H37" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I37" s="16"/>
       <c r="J37" s="16"/>
       <c r="K37" s="16"/>
       <c r="L37" s="16"/>
       <c r="M37" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N37" s="16"/>
       <c r="O37" s="26"/>
       <c r="P37" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="Q37" s="16"/>
       <c r="R37" s="16"/>
       <c r="S37" s="16"/>
       <c r="T37" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="U37" s="16"/>
       <c r="V37" s="16"/>
       <c r="W37" s="16"/>
       <c r="X37" s="16"/>
       <c r="AA37" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
@@ -2851,35 +2589,35 @@
         <v>43474</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C38" s="16"/>
       <c r="D38" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
       <c r="H38" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I38" s="16"/>
       <c r="J38" s="16"/>
       <c r="K38" s="16"/>
       <c r="L38" s="16"/>
       <c r="M38" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="N38" s="16"/>
       <c r="O38" s="16"/>
       <c r="P38" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q38" s="16"/>
       <c r="R38" s="16"/>
       <c r="S38" s="16"/>
       <c r="T38" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="U38" s="16"/>
       <c r="V38" s="16"/>
@@ -2891,35 +2629,35 @@
         <v>43475</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C39" s="16"/>
       <c r="D39" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
       <c r="H39" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I39" s="16"/>
       <c r="J39" s="16"/>
       <c r="K39" s="16"/>
       <c r="L39" s="16"/>
       <c r="M39" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="N39" s="16"/>
       <c r="O39" s="16"/>
       <c r="P39" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q39" s="16"/>
       <c r="R39" s="16"/>
       <c r="S39" s="16"/>
       <c r="T39" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="U39" s="16"/>
       <c r="V39" s="16"/>
@@ -2931,35 +2669,35 @@
         <v>43476</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C40" s="16"/>
       <c r="D40" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
       <c r="H40" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I40" s="16"/>
       <c r="J40" s="16"/>
       <c r="K40" s="16"/>
       <c r="L40" s="16"/>
       <c r="M40" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N40" s="16"/>
       <c r="O40" s="16"/>
       <c r="P40" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="Q40" s="16"/>
       <c r="R40" s="16"/>
       <c r="S40" s="16"/>
       <c r="T40" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="U40" s="16"/>
       <c r="V40" s="16"/>
@@ -2971,13 +2709,13 @@
         <v>43477</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E41" s="25"/>
       <c r="F41" s="22"/>
@@ -2988,11 +2726,11 @@
       <c r="K41" s="22"/>
       <c r="L41" s="22"/>
       <c r="M41" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="N41" s="16"/>
       <c r="O41" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="P41" s="22"/>
       <c r="Q41" s="21"/>
@@ -3009,13 +2747,13 @@
         <v>43478</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E42" s="25"/>
       <c r="F42" s="22"/>
@@ -3026,11 +2764,11 @@
       <c r="K42" s="22"/>
       <c r="L42" s="22"/>
       <c r="M42" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="N42" s="16"/>
       <c r="O42" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="P42" s="22"/>
       <c r="Q42" s="21"/>
@@ -3042,7 +2780,7 @@
       <c r="W42" s="16"/>
       <c r="X42" s="21"/>
       <c r="AA42" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
@@ -3050,47 +2788,47 @@
         <v>43479</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
       <c r="H43" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="I43" s="16"/>
       <c r="J43" s="16"/>
       <c r="K43" s="16"/>
       <c r="L43" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="M43" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="N43" s="16"/>
       <c r="O43" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="P43" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q43" s="16"/>
       <c r="R43" s="16"/>
       <c r="S43" s="16"/>
       <c r="T43" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="U43" s="16"/>
       <c r="V43" s="16"/>
       <c r="W43" s="16"/>
       <c r="X43" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
@@ -3098,11 +2836,11 @@
         <v>43480</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C44" s="16"/>
       <c r="D44" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
@@ -3113,27 +2851,27 @@
       <c r="K44" s="16"/>
       <c r="L44" s="16"/>
       <c r="M44" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="N44" s="16"/>
       <c r="O44" s="16"/>
       <c r="P44" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q44" s="16"/>
       <c r="R44" s="16"/>
       <c r="S44" s="16"/>
       <c r="T44" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="U44" s="16"/>
       <c r="V44" s="16"/>
       <c r="W44" s="16"/>
       <c r="X44" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AA44" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.2">
@@ -3141,11 +2879,11 @@
         <v>43481</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C45" s="16"/>
       <c r="D45" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
@@ -3156,24 +2894,24 @@
       <c r="K45" s="16"/>
       <c r="L45" s="16"/>
       <c r="M45" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N45" s="16"/>
       <c r="O45" s="16"/>
       <c r="P45" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="Q45" s="16"/>
       <c r="R45" s="16"/>
       <c r="S45" s="16"/>
       <c r="T45" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="U45" s="16"/>
       <c r="V45" s="16"/>
       <c r="W45" s="16"/>
       <c r="X45" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.2">
@@ -3181,11 +2919,11 @@
         <v>43482</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C46" s="16"/>
       <c r="D46" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
@@ -3196,27 +2934,27 @@
       <c r="K46" s="16"/>
       <c r="L46" s="16"/>
       <c r="M46" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N46" s="16"/>
       <c r="O46" s="16"/>
       <c r="P46" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="Q46" s="16"/>
       <c r="R46" s="16"/>
       <c r="S46" s="16"/>
       <c r="T46" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="U46" s="16"/>
       <c r="V46" s="16"/>
       <c r="W46" s="16"/>
       <c r="X46" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="AA46" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.2">
@@ -3224,11 +2962,11 @@
         <v>43483</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C47" s="16"/>
       <c r="D47" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
@@ -3239,24 +2977,24 @@
       <c r="K47" s="16"/>
       <c r="L47" s="16"/>
       <c r="M47" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="N47" s="16"/>
       <c r="O47" s="16"/>
       <c r="P47" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q47" s="16"/>
       <c r="R47" s="16"/>
       <c r="S47" s="16"/>
       <c r="T47" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="U47" s="16"/>
       <c r="V47" s="16"/>
       <c r="W47" s="16"/>
       <c r="X47" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
@@ -3264,7 +3002,7 @@
         <v>43484</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C48" s="22"/>
       <c r="D48" s="22"/>
@@ -3272,19 +3010,19 @@
       <c r="F48" s="22"/>
       <c r="G48" s="16"/>
       <c r="H48" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I48" s="22"/>
       <c r="J48" s="16"/>
       <c r="K48" s="21"/>
       <c r="L48" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="M48" s="22"/>
       <c r="N48" s="16"/>
       <c r="O48" s="22"/>
       <c r="P48" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Q48" s="22"/>
       <c r="R48" s="16"/>
@@ -3294,7 +3032,7 @@
       <c r="V48" s="22"/>
       <c r="W48" s="16"/>
       <c r="X48" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.2">
@@ -3302,7 +3040,7 @@
         <v>43485</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C49" s="22"/>
       <c r="D49" s="22"/>
@@ -3310,19 +3048,19 @@
       <c r="F49" s="22"/>
       <c r="G49" s="16"/>
       <c r="H49" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I49" s="22"/>
       <c r="J49" s="16"/>
       <c r="K49" s="22"/>
       <c r="L49" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="M49" s="22"/>
       <c r="N49" s="16"/>
       <c r="O49" s="22"/>
       <c r="P49" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Q49" s="22"/>
       <c r="R49" s="16"/>
@@ -3332,7 +3070,7 @@
       <c r="V49" s="22"/>
       <c r="W49" s="16"/>
       <c r="X49" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.2">
@@ -3340,50 +3078,50 @@
         <v>43486</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C50" s="16"/>
       <c r="D50" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E50" s="16"/>
       <c r="F50" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G50" s="16"/>
       <c r="H50" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="I50" s="16"/>
       <c r="J50" s="16"/>
       <c r="K50" s="16"/>
       <c r="L50" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="M50" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="N50" s="16"/>
       <c r="O50" s="16"/>
       <c r="P50" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="Q50" s="16"/>
       <c r="R50" s="16"/>
       <c r="S50" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="T50" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="U50" s="16"/>
       <c r="V50" s="16"/>
       <c r="W50" s="16"/>
       <c r="X50" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="AA50" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.2">
@@ -3391,11 +3129,11 @@
         <v>43487</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C51" s="16"/>
       <c r="D51" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E51" s="16"/>
       <c r="F51" s="16"/>
@@ -3406,27 +3144,27 @@
       <c r="K51" s="16"/>
       <c r="L51" s="16"/>
       <c r="M51" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="N51" s="16"/>
       <c r="O51" s="16"/>
       <c r="P51" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="Q51" s="16"/>
       <c r="R51" s="16"/>
       <c r="S51" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="T51" s="16"/>
       <c r="U51" s="16"/>
       <c r="V51" s="16"/>
       <c r="W51" s="16"/>
       <c r="X51" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="AA51" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.2">
@@ -3434,11 +3172,11 @@
         <v>43488</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C52" s="16"/>
       <c r="D52" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
@@ -3449,27 +3187,27 @@
       <c r="K52" s="16"/>
       <c r="L52" s="16"/>
       <c r="M52" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="N52" s="16"/>
       <c r="O52" s="16"/>
       <c r="P52" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q52" s="16"/>
       <c r="R52" s="31"/>
       <c r="S52" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="T52" s="16"/>
       <c r="U52" s="16"/>
       <c r="V52" s="16"/>
       <c r="W52" s="16"/>
       <c r="X52" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AA52" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.2">
@@ -3477,11 +3215,11 @@
         <v>43489</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C53" s="16"/>
       <c r="D53" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
@@ -3492,24 +3230,24 @@
       <c r="K53" s="16"/>
       <c r="L53" s="16"/>
       <c r="M53" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="N53" s="16"/>
       <c r="O53" s="16"/>
       <c r="P53" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q53" s="16"/>
       <c r="R53" s="31"/>
       <c r="S53" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="T53" s="16"/>
       <c r="U53" s="16"/>
       <c r="V53" s="16"/>
       <c r="W53" s="16"/>
       <c r="X53" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.2">
@@ -3517,11 +3255,11 @@
         <v>43490</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C54" s="16"/>
       <c r="D54" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
@@ -3532,24 +3270,24 @@
       <c r="K54" s="16"/>
       <c r="L54" s="16"/>
       <c r="M54" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="N54" s="16"/>
       <c r="O54" s="16"/>
       <c r="P54" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="Q54" s="16"/>
       <c r="R54" s="16"/>
       <c r="S54" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="T54" s="16"/>
       <c r="U54" s="16"/>
       <c r="V54" s="16"/>
       <c r="W54" s="16"/>
       <c r="X54" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.2">
@@ -3557,15 +3295,15 @@
         <v>43491</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C55" s="22"/>
       <c r="D55" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E55" s="16"/>
       <c r="F55" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G55" s="16"/>
       <c r="H55" s="22"/>
@@ -3580,17 +3318,17 @@
       <c r="Q55" s="22"/>
       <c r="R55" s="16"/>
       <c r="S55" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="T55" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="U55" s="16"/>
       <c r="V55" s="21"/>
       <c r="W55" s="16"/>
       <c r="X55" s="22"/>
       <c r="AA55" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.2">
@@ -3598,15 +3336,15 @@
         <v>43492</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C56" s="22"/>
       <c r="D56" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E56" s="16"/>
       <c r="F56" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G56" s="16"/>
       <c r="H56" s="22"/>
@@ -3621,17 +3359,17 @@
       <c r="Q56" s="22"/>
       <c r="R56" s="16"/>
       <c r="S56" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="T56" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="U56" s="16"/>
       <c r="V56" s="22"/>
       <c r="W56" s="16"/>
       <c r="X56" s="22"/>
       <c r="AA56" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.2">
@@ -3639,47 +3377,47 @@
         <v>43493</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E57" s="16"/>
       <c r="F57" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G57" s="16"/>
       <c r="H57" s="16"/>
       <c r="I57" s="16"/>
       <c r="J57" s="16"/>
       <c r="K57" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L57" s="16"/>
       <c r="M57" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="N57" s="16"/>
       <c r="O57" s="16"/>
       <c r="P57" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="Q57" s="16"/>
       <c r="R57" s="16"/>
       <c r="S57" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="T57" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="U57" s="16"/>
       <c r="V57" s="16"/>
       <c r="W57" s="16"/>
       <c r="X57" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.2">
@@ -3687,11 +3425,11 @@
         <v>43494</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C58" s="16"/>
       <c r="D58" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E58" s="16"/>
       <c r="F58" s="16"/>
@@ -3700,28 +3438,28 @@
       <c r="I58" s="16"/>
       <c r="J58" s="16"/>
       <c r="K58" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L58" s="16"/>
       <c r="M58" s="16"/>
       <c r="N58" s="16"/>
       <c r="O58" s="16"/>
       <c r="P58" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="Q58" s="16" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="R58" s="16"/>
       <c r="S58" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="T58" s="16"/>
       <c r="U58" s="16"/>
       <c r="V58" s="16"/>
       <c r="W58" s="16"/>
       <c r="X58" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.2">
@@ -3729,11 +3467,11 @@
         <v>43495</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C59" s="16"/>
       <c r="D59" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E59" s="16"/>
       <c r="F59" s="16"/>
@@ -3742,26 +3480,26 @@
       <c r="I59" s="16"/>
       <c r="J59" s="16"/>
       <c r="K59" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="L59" s="16"/>
       <c r="M59" s="16"/>
       <c r="N59" s="16"/>
       <c r="O59" s="16"/>
       <c r="P59" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="Q59" s="16"/>
       <c r="R59" s="16"/>
       <c r="S59" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="T59" s="16"/>
       <c r="U59" s="16"/>
       <c r="V59" s="16"/>
       <c r="W59" s="16"/>
       <c r="X59" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.2">
@@ -3769,11 +3507,11 @@
         <v>43496</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C60" s="16"/>
       <c r="D60" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E60" s="16"/>
       <c r="F60" s="16"/>
@@ -3782,26 +3520,26 @@
       <c r="I60" s="16"/>
       <c r="J60" s="16"/>
       <c r="K60" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="L60" s="16"/>
       <c r="M60" s="16"/>
       <c r="N60" s="16"/>
       <c r="O60" s="16"/>
       <c r="P60" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="Q60" s="16"/>
       <c r="R60" s="16"/>
       <c r="S60" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="T60" s="16"/>
       <c r="U60" s="16"/>
       <c r="V60" s="16"/>
       <c r="W60" s="16"/>
       <c r="X60" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.2">
@@ -3809,11 +3547,11 @@
         <v>43497</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C61" s="16"/>
       <c r="D61" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
@@ -3822,29 +3560,29 @@
       <c r="I61" s="16"/>
       <c r="J61" s="16"/>
       <c r="K61" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L61" s="16"/>
       <c r="M61" s="16"/>
       <c r="N61" s="16"/>
       <c r="O61" s="16"/>
       <c r="P61" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="Q61" s="16"/>
       <c r="R61" s="16"/>
       <c r="S61" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="T61" s="16"/>
       <c r="U61" s="16"/>
       <c r="V61" s="16"/>
       <c r="W61" s="16"/>
       <c r="X61" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AA61" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.2">
@@ -3852,10 +3590,10 @@
         <v>43498</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D62" s="22"/>
       <c r="E62" s="16"/>
@@ -3865,11 +3603,11 @@
       <c r="I62" s="22"/>
       <c r="J62" s="16"/>
       <c r="K62" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L62" s="21"/>
       <c r="M62" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="N62" s="25"/>
       <c r="O62" s="22"/>
@@ -3882,7 +3620,7 @@
       <c r="V62" s="22"/>
       <c r="W62" s="25"/>
       <c r="X62" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.2">
@@ -3890,10 +3628,10 @@
         <v>43499</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D63" s="22"/>
       <c r="E63" s="16"/>
@@ -3903,11 +3641,11 @@
       <c r="I63" s="22"/>
       <c r="J63" s="16"/>
       <c r="K63" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L63" s="21"/>
       <c r="M63" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="N63" s="16"/>
       <c r="O63" s="22"/>
@@ -3920,13 +3658,13 @@
       <c r="V63" s="22"/>
       <c r="W63" s="16"/>
       <c r="X63" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Z63" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="AA63" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.2">
@@ -3934,45 +3672,45 @@
         <v>43500</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E64" s="16"/>
       <c r="F64" s="16"/>
       <c r="G64" s="16"/>
       <c r="H64" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="I64" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J64" s="16"/>
       <c r="K64" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="L64" s="16"/>
       <c r="M64" s="16"/>
       <c r="N64" s="16"/>
       <c r="O64" s="16"/>
       <c r="P64" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="Q64" s="16"/>
       <c r="R64" s="16"/>
       <c r="S64" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="T64" s="16"/>
       <c r="U64" s="16"/>
       <c r="V64" s="16"/>
       <c r="W64" s="16"/>
       <c r="X64" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.2">
@@ -3980,22 +3718,22 @@
         <v>43501</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C65" s="16"/>
       <c r="D65" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E65" s="16"/>
       <c r="F65" s="16"/>
       <c r="G65" s="16"/>
       <c r="H65" s="16"/>
       <c r="I65" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J65" s="16"/>
       <c r="K65" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="L65" s="16"/>
       <c r="M65" s="16"/>
@@ -4005,14 +3743,14 @@
       <c r="Q65" s="16"/>
       <c r="R65" s="16"/>
       <c r="S65" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="T65" s="16"/>
       <c r="U65" s="16"/>
       <c r="V65" s="16"/>
       <c r="W65" s="16"/>
       <c r="X65" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.2">
@@ -4020,22 +3758,22 @@
         <v>43502</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C66" s="16"/>
       <c r="D66" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E66" s="16"/>
       <c r="F66" s="16"/>
       <c r="G66" s="16"/>
       <c r="H66" s="16"/>
       <c r="I66" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="J66" s="16"/>
       <c r="K66" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L66" s="16"/>
       <c r="M66" s="16"/>
@@ -4045,17 +3783,17 @@
       <c r="Q66" s="16"/>
       <c r="R66" s="16"/>
       <c r="S66" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="T66" s="30"/>
       <c r="U66" s="16"/>
       <c r="V66" s="30"/>
       <c r="W66" s="16"/>
       <c r="X66" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AA66" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.2">
@@ -4063,22 +3801,22 @@
         <v>43503</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C67" s="16"/>
       <c r="D67" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E67" s="16"/>
       <c r="F67" s="16"/>
       <c r="G67" s="16"/>
       <c r="H67" s="16"/>
       <c r="I67" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="J67" s="16"/>
       <c r="K67" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L67" s="16"/>
       <c r="M67" s="16"/>
@@ -4088,14 +3826,14 @@
       <c r="Q67" s="16"/>
       <c r="R67" s="16"/>
       <c r="S67" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="T67" s="30"/>
       <c r="U67" s="16"/>
       <c r="V67" s="30"/>
       <c r="W67" s="16"/>
       <c r="X67" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.2">
@@ -4103,22 +3841,22 @@
         <v>43504</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C68" s="16"/>
       <c r="D68" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E68" s="16"/>
       <c r="F68" s="16"/>
       <c r="G68" s="16"/>
       <c r="H68" s="16"/>
       <c r="I68" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J68" s="16"/>
       <c r="K68" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="L68" s="16"/>
       <c r="M68" s="16"/>
@@ -4128,17 +3866,17 @@
       <c r="Q68" s="16"/>
       <c r="R68" s="16"/>
       <c r="S68" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="T68" s="16"/>
       <c r="U68" s="16"/>
       <c r="V68" s="16"/>
       <c r="W68" s="16"/>
       <c r="X68" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="AA68" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.2">
@@ -4146,7 +3884,7 @@
         <v>43505</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C69" s="22"/>
       <c r="D69" s="22"/>
@@ -4154,10 +3892,10 @@
       <c r="F69" s="21"/>
       <c r="G69" s="16"/>
       <c r="H69" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I69" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J69" s="16"/>
       <c r="K69" s="22"/>
@@ -4166,12 +3904,12 @@
       <c r="N69" s="16"/>
       <c r="O69" s="22"/>
       <c r="P69" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Q69" s="22"/>
       <c r="R69" s="16"/>
       <c r="S69" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="T69" s="22"/>
       <c r="U69" s="16"/>
@@ -4184,7 +3922,7 @@
         <v>43506</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C70" s="22"/>
       <c r="D70" s="22"/>
@@ -4192,10 +3930,10 @@
       <c r="F70" s="21"/>
       <c r="G70" s="16"/>
       <c r="H70" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I70" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J70" s="16"/>
       <c r="K70" s="22"/>
@@ -4204,12 +3942,12 @@
       <c r="N70" s="16"/>
       <c r="O70" s="22"/>
       <c r="P70" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Q70" s="22"/>
       <c r="R70" s="16"/>
       <c r="S70" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="T70" s="22"/>
       <c r="U70" s="16"/>
@@ -4217,7 +3955,7 @@
       <c r="W70" s="16"/>
       <c r="X70" s="22"/>
       <c r="AA70" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.2">
@@ -4225,48 +3963,48 @@
         <v>43507</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C71" s="16"/>
       <c r="D71" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E71" s="16"/>
       <c r="F71" s="16"/>
       <c r="G71" s="16"/>
       <c r="H71" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="I71" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="J71" s="16"/>
       <c r="K71" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L71" s="16"/>
       <c r="M71" s="16"/>
       <c r="N71" s="16"/>
       <c r="O71" s="16"/>
       <c r="P71" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="Q71" s="16"/>
       <c r="R71" s="16"/>
       <c r="S71" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="T71" s="16"/>
       <c r="U71" s="16"/>
       <c r="V71" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="W71" s="16"/>
       <c r="X71" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="AA71" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.2">
@@ -4274,7 +4012,7 @@
         <v>43508</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C72" s="16"/>
       <c r="D72" s="16"/>
@@ -4283,11 +4021,11 @@
       <c r="G72" s="16"/>
       <c r="H72" s="16"/>
       <c r="I72" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="J72" s="16"/>
       <c r="K72" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L72" s="16"/>
       <c r="M72" s="16"/>
@@ -4297,19 +4035,19 @@
       <c r="Q72" s="16"/>
       <c r="R72" s="16"/>
       <c r="S72" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="T72" s="26"/>
       <c r="U72" s="16"/>
       <c r="V72" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="W72" s="16"/>
       <c r="X72" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="AA72" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.2">
@@ -4317,7 +4055,7 @@
         <v>43509</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C73" s="16"/>
       <c r="D73" s="16"/>
@@ -4326,11 +4064,11 @@
       <c r="G73" s="16"/>
       <c r="H73" s="16"/>
       <c r="I73" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J73" s="16"/>
       <c r="K73" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="L73" s="16"/>
       <c r="M73" s="16"/>
@@ -4340,16 +4078,16 @@
       <c r="Q73" s="16"/>
       <c r="R73" s="16"/>
       <c r="S73" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="T73" s="16"/>
       <c r="U73" s="16"/>
       <c r="V73" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="W73" s="31"/>
       <c r="X73" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.2">
@@ -4357,7 +4095,7 @@
         <v>43510</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C74" s="16"/>
       <c r="D74" s="16"/>
@@ -4366,11 +4104,11 @@
       <c r="G74" s="16"/>
       <c r="H74" s="16"/>
       <c r="I74" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J74" s="16"/>
       <c r="K74" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="L74" s="16"/>
       <c r="M74" s="16"/>
@@ -4380,22 +4118,22 @@
       <c r="Q74" s="16"/>
       <c r="R74" s="16"/>
       <c r="S74" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="T74" s="16"/>
       <c r="U74" s="16"/>
       <c r="V74" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="W74" s="31"/>
       <c r="X74" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="Z74" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="AA74" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.2">
@@ -4403,7 +4141,7 @@
         <v>43511</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C75" s="16"/>
       <c r="D75" s="16"/>
@@ -4412,11 +4150,11 @@
       <c r="G75" s="16"/>
       <c r="H75" s="16"/>
       <c r="I75" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="J75" s="16"/>
       <c r="K75" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L75" s="16"/>
       <c r="M75" s="16"/>
@@ -4426,16 +4164,16 @@
       <c r="Q75" s="16"/>
       <c r="R75" s="16"/>
       <c r="S75" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="T75" s="16"/>
       <c r="U75" s="16"/>
       <c r="V75" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="W75" s="16"/>
       <c r="X75" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.2">
@@ -4443,11 +4181,11 @@
         <v>43512</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C76" s="21"/>
       <c r="D76" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E76" s="25"/>
       <c r="F76" s="21"/>
@@ -4456,7 +4194,7 @@
       <c r="I76" s="22"/>
       <c r="J76" s="25"/>
       <c r="K76" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="L76" s="22"/>
       <c r="M76" s="22"/>
@@ -4467,16 +4205,16 @@
       <c r="R76" s="16"/>
       <c r="S76" s="22"/>
       <c r="T76" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="U76" s="16"/>
       <c r="V76" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="W76" s="16"/>
       <c r="X76" s="22"/>
       <c r="AA76" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.2">
@@ -4484,11 +4222,11 @@
         <v>43513</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C77" s="21"/>
       <c r="D77" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E77" s="16"/>
       <c r="F77" s="21"/>
@@ -4497,7 +4235,7 @@
       <c r="I77" s="22"/>
       <c r="J77" s="16"/>
       <c r="K77" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="L77" s="22"/>
       <c r="M77" s="22"/>
@@ -4508,11 +4246,11 @@
       <c r="R77" s="16"/>
       <c r="S77" s="22"/>
       <c r="T77" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="U77" s="16"/>
       <c r="V77" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="W77" s="16"/>
       <c r="X77" s="22"/>
@@ -4522,47 +4260,47 @@
         <v>43514</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C78" s="16"/>
       <c r="D78" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E78" s="16"/>
       <c r="F78" s="16"/>
       <c r="G78" s="16"/>
       <c r="H78" s="16"/>
       <c r="I78" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J78" s="16"/>
       <c r="K78" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="L78" s="16"/>
       <c r="M78" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="N78" s="16"/>
       <c r="O78" s="16"/>
       <c r="P78" s="16"/>
       <c r="Q78" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="R78" s="16"/>
       <c r="S78" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="T78" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="U78" s="16"/>
       <c r="V78" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="W78" s="16"/>
       <c r="X78" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.2">
@@ -4570,7 +4308,7 @@
         <v>43515</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C79" s="16"/>
       <c r="D79" s="16"/>
@@ -4579,11 +4317,11 @@
       <c r="G79" s="16"/>
       <c r="H79" s="16"/>
       <c r="I79" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J79" s="16"/>
       <c r="K79" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="L79" s="16"/>
       <c r="M79" s="16"/>
@@ -4591,16 +4329,16 @@
       <c r="O79" s="16"/>
       <c r="P79" s="16"/>
       <c r="Q79" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="R79" s="16"/>
       <c r="S79" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="T79" s="16"/>
       <c r="U79" s="16"/>
       <c r="V79" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="W79" s="16"/>
       <c r="X79" s="16"/>
@@ -4610,7 +4348,7 @@
         <v>43516</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C80" s="16"/>
       <c r="D80" s="16"/>
@@ -4619,11 +4357,11 @@
       <c r="G80" s="16"/>
       <c r="H80" s="16"/>
       <c r="I80" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="J80" s="16"/>
       <c r="K80" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L80" s="16"/>
       <c r="M80" s="16"/>
@@ -4631,16 +4369,16 @@
       <c r="O80" s="16"/>
       <c r="P80" s="30"/>
       <c r="Q80" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="R80" s="16"/>
       <c r="S80" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="T80" s="16"/>
       <c r="U80" s="16"/>
       <c r="V80" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="W80" s="16"/>
       <c r="X80" s="16"/>
@@ -4650,7 +4388,7 @@
         <v>43517</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C81" s="16"/>
       <c r="D81" s="16"/>
@@ -4659,11 +4397,11 @@
       <c r="G81" s="16"/>
       <c r="H81" s="16"/>
       <c r="I81" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="J81" s="16"/>
       <c r="K81" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L81" s="16"/>
       <c r="M81" s="16"/>
@@ -4671,21 +4409,21 @@
       <c r="O81" s="16"/>
       <c r="P81" s="30"/>
       <c r="Q81" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="R81" s="16"/>
       <c r="S81" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="T81" s="16"/>
       <c r="U81" s="16"/>
       <c r="V81" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="W81" s="16"/>
       <c r="X81" s="16"/>
       <c r="AA81" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.2">
@@ -4693,7 +4431,7 @@
         <v>43518</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C82" s="16"/>
       <c r="D82" s="16"/>
@@ -4702,11 +4440,11 @@
       <c r="G82" s="16"/>
       <c r="H82" s="16"/>
       <c r="I82" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J82" s="16"/>
       <c r="K82" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="L82" s="16"/>
       <c r="M82" s="16"/>
@@ -4714,21 +4452,21 @@
       <c r="O82" s="16"/>
       <c r="P82" s="16"/>
       <c r="Q82" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="R82" s="16"/>
       <c r="S82" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="T82" s="16"/>
       <c r="U82" s="26"/>
       <c r="V82" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="W82" s="16"/>
       <c r="X82" s="16"/>
       <c r="AA82" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:27" x14ac:dyDescent="0.2">
@@ -4736,7 +4474,7 @@
         <v>43519</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C83" s="21"/>
       <c r="D83" s="22"/>
@@ -4745,19 +4483,19 @@
       <c r="G83" s="25"/>
       <c r="H83" s="22"/>
       <c r="I83" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="J83" s="16"/>
       <c r="K83" s="22"/>
       <c r="L83" s="22"/>
       <c r="M83" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="N83" s="16"/>
       <c r="O83" s="21"/>
       <c r="P83" s="22"/>
       <c r="Q83" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="R83" s="16"/>
       <c r="S83" s="22"/>
@@ -4766,7 +4504,7 @@
       <c r="V83" s="22"/>
       <c r="W83" s="16"/>
       <c r="X83" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" spans="1:27" x14ac:dyDescent="0.2">
@@ -4774,7 +4512,7 @@
         <v>43520</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C84" s="21"/>
       <c r="D84" s="22"/>
@@ -4783,19 +4521,19 @@
       <c r="G84" s="25"/>
       <c r="H84" s="22"/>
       <c r="I84" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="J84" s="16"/>
       <c r="K84" s="22"/>
       <c r="L84" s="22"/>
       <c r="M84" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="N84" s="16"/>
       <c r="O84" s="22"/>
       <c r="P84" s="22"/>
       <c r="Q84" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="R84" s="16"/>
       <c r="S84" s="22"/>
@@ -4804,7 +4542,7 @@
       <c r="V84" s="22"/>
       <c r="W84" s="16"/>
       <c r="X84" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" spans="1:27" x14ac:dyDescent="0.2">
@@ -4812,7 +4550,7 @@
         <v>43521</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C85" s="16"/>
       <c r="D85" s="16"/>
@@ -4821,41 +4559,41 @@
       <c r="G85" s="16"/>
       <c r="H85" s="16"/>
       <c r="I85" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="J85" s="16"/>
       <c r="K85" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="L85" s="16"/>
       <c r="M85" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="N85" s="16"/>
       <c r="O85" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P85" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="Q85" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="R85" s="16"/>
       <c r="S85" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="T85" s="16"/>
       <c r="U85" s="16"/>
       <c r="V85" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="W85" s="16"/>
       <c r="X85" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="AA85" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:27" x14ac:dyDescent="0.2">
@@ -4863,7 +4601,7 @@
         <v>43522</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C86" s="16"/>
       <c r="D86" s="16"/>
@@ -4872,28 +4610,28 @@
       <c r="G86" s="16"/>
       <c r="H86" s="16"/>
       <c r="I86" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="J86" s="16"/>
       <c r="K86" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="L86" s="16"/>
       <c r="M86" s="16"/>
       <c r="N86" s="16"/>
       <c r="O86" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P86" s="26"/>
       <c r="Q86" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="R86" s="16"/>
       <c r="S86" s="16"/>
       <c r="T86" s="16"/>
       <c r="U86" s="16"/>
       <c r="V86" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="W86" s="16"/>
       <c r="X86" s="16"/>
@@ -4903,7 +4641,7 @@
         <v>43523</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C87" s="16"/>
       <c r="D87" s="30"/>
@@ -4912,28 +4650,28 @@
       <c r="G87" s="16"/>
       <c r="H87" s="16"/>
       <c r="I87" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J87" s="31"/>
       <c r="K87" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="L87" s="16"/>
       <c r="M87" s="16"/>
       <c r="N87" s="16"/>
       <c r="O87" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="P87" s="16"/>
       <c r="Q87" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="R87" s="16"/>
       <c r="S87" s="16"/>
       <c r="T87" s="16"/>
       <c r="U87" s="16"/>
       <c r="V87" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="W87" s="16"/>
       <c r="X87" s="16"/>
@@ -4943,7 +4681,7 @@
         <v>43524</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C88" s="16"/>
       <c r="D88" s="30"/>
@@ -4952,28 +4690,28 @@
       <c r="G88" s="16"/>
       <c r="H88" s="16"/>
       <c r="I88" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J88" s="31"/>
       <c r="K88" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="L88" s="16"/>
       <c r="M88" s="16"/>
       <c r="N88" s="16"/>
       <c r="O88" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="P88" s="16"/>
       <c r="Q88" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="R88" s="16"/>
       <c r="S88" s="16"/>
       <c r="T88" s="16"/>
       <c r="U88" s="16"/>
       <c r="V88" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="W88" s="16"/>
       <c r="X88" s="16"/>
@@ -4983,7 +4721,7 @@
         <v>43525</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C89" s="16"/>
       <c r="D89" s="16"/>
@@ -4992,28 +4730,28 @@
       <c r="G89" s="16"/>
       <c r="H89" s="16"/>
       <c r="I89" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="J89" s="16"/>
       <c r="K89" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="L89" s="16"/>
       <c r="M89" s="16"/>
       <c r="N89" s="16"/>
       <c r="O89" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P89" s="16"/>
       <c r="Q89" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="R89" s="16"/>
       <c r="S89" s="16"/>
       <c r="T89" s="16"/>
       <c r="U89" s="16"/>
       <c r="V89" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="W89" s="16"/>
       <c r="X89" s="16"/>
@@ -5024,7 +4762,7 @@
         <v>43526</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C90" s="22"/>
       <c r="D90" s="22"/>
@@ -5039,20 +4777,20 @@
       <c r="M90" s="22"/>
       <c r="N90" s="16"/>
       <c r="O90" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P90" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Q90" s="22"/>
       <c r="R90" s="16"/>
       <c r="S90" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="T90" s="21"/>
       <c r="U90" s="16"/>
       <c r="V90" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="W90" s="16"/>
       <c r="X90" s="22"/>
@@ -5063,7 +4801,7 @@
         <v>43527</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C91" s="22"/>
       <c r="D91" s="22"/>
@@ -5078,20 +4816,20 @@
       <c r="M91" s="22"/>
       <c r="N91" s="16"/>
       <c r="O91" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P91" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Q91" s="22"/>
       <c r="R91" s="16"/>
       <c r="S91" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="T91" s="22"/>
       <c r="U91" s="16"/>
       <c r="V91" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="W91" s="16"/>
       <c r="X91" s="22"/>
@@ -5102,45 +4840,45 @@
         <v>43528</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C92" s="16"/>
       <c r="D92" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E92" s="16"/>
       <c r="F92" s="16"/>
       <c r="G92" s="16"/>
       <c r="H92" s="16"/>
       <c r="I92" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J92" s="16"/>
       <c r="K92" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="L92" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M92" s="16"/>
       <c r="N92" s="16"/>
       <c r="O92" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="P92" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="Q92" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="R92" s="16"/>
       <c r="S92" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="T92" s="16"/>
       <c r="U92" s="16"/>
       <c r="V92" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="W92" s="16"/>
       <c r="X92" s="16"/>
@@ -5151,7 +4889,7 @@
         <v>43529</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C93" s="16"/>
       <c r="D93" s="26"/>
@@ -5160,28 +4898,28 @@
       <c r="G93" s="16"/>
       <c r="H93" s="16"/>
       <c r="I93" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J93" s="16"/>
       <c r="K93" s="16"/>
       <c r="L93" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M93" s="16"/>
       <c r="N93" s="16"/>
       <c r="O93" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="P93" s="16"/>
       <c r="Q93" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="R93" s="16"/>
       <c r="S93" s="16"/>
       <c r="T93" s="16"/>
       <c r="U93" s="16"/>
       <c r="V93" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="W93" s="16"/>
       <c r="X93" s="16"/>
@@ -5192,7 +4930,7 @@
         <v>43530</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C94" s="16"/>
       <c r="D94" s="16"/>
@@ -5201,28 +4939,28 @@
       <c r="G94" s="16"/>
       <c r="H94" s="16"/>
       <c r="I94" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J94" s="16"/>
       <c r="K94" s="16"/>
       <c r="L94" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="M94" s="16"/>
       <c r="N94" s="16"/>
       <c r="O94" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P94" s="16"/>
       <c r="Q94" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="R94" s="16"/>
       <c r="S94" s="16"/>
       <c r="T94" s="16"/>
       <c r="U94" s="16"/>
       <c r="V94" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="W94" s="16"/>
       <c r="X94" s="30"/>
@@ -5233,7 +4971,7 @@
         <v>43531</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C95" s="16"/>
       <c r="D95" s="16"/>
@@ -5242,28 +4980,28 @@
       <c r="G95" s="16"/>
       <c r="H95" s="16"/>
       <c r="I95" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J95" s="16"/>
       <c r="K95" s="16"/>
       <c r="L95" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="M95" s="16"/>
       <c r="N95" s="16"/>
       <c r="O95" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P95" s="16"/>
       <c r="Q95" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="R95" s="16"/>
       <c r="S95" s="16"/>
       <c r="T95" s="16"/>
       <c r="U95" s="16"/>
       <c r="V95" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="W95" s="16"/>
       <c r="X95" s="30"/>
@@ -5274,7 +5012,7 @@
         <v>43532</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C96" s="16"/>
       <c r="D96" s="16"/>
@@ -5283,28 +5021,28 @@
       <c r="G96" s="16"/>
       <c r="H96" s="16"/>
       <c r="I96" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J96" s="16"/>
       <c r="K96" s="16"/>
       <c r="L96" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M96" s="16"/>
       <c r="N96" s="16"/>
       <c r="O96" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="P96" s="16"/>
       <c r="Q96" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="R96" s="16"/>
       <c r="S96" s="16"/>
       <c r="T96" s="16"/>
       <c r="U96" s="16"/>
       <c r="V96" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="W96" s="16"/>
       <c r="X96" s="16"/>
@@ -5315,11 +5053,11 @@
         <v>43533</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C97" s="22"/>
       <c r="D97" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E97" s="16"/>
       <c r="F97" s="22"/>
@@ -5328,17 +5066,17 @@
       <c r="I97" s="22"/>
       <c r="J97" s="16"/>
       <c r="K97" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="L97" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M97" s="22"/>
       <c r="N97" s="16"/>
       <c r="O97" s="22"/>
       <c r="P97" s="22"/>
       <c r="Q97" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="R97" s="16"/>
       <c r="S97" s="22"/>
@@ -5354,11 +5092,11 @@
         <v>43534</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C98" s="22"/>
       <c r="D98" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E98" s="16"/>
       <c r="F98" s="22"/>
@@ -5367,17 +5105,17 @@
       <c r="I98" s="22"/>
       <c r="J98" s="16"/>
       <c r="K98" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="L98" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M98" s="22"/>
       <c r="N98" s="16"/>
       <c r="O98" s="22"/>
       <c r="P98" s="22"/>
       <c r="Q98" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="R98" s="16"/>
       <c r="S98" s="22"/>
@@ -5393,54 +5131,54 @@
         <v>43535</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C99" s="16"/>
       <c r="D99" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E99" s="16"/>
       <c r="F99" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G99" s="16"/>
       <c r="H99" s="16"/>
       <c r="I99" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="J99" s="16"/>
       <c r="K99" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="L99" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="M99" s="16"/>
       <c r="N99" s="16"/>
       <c r="O99" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P99" s="16"/>
       <c r="Q99" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="R99" s="16"/>
       <c r="S99" s="16"/>
       <c r="T99" s="16"/>
       <c r="U99" s="16"/>
       <c r="V99" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="W99" s="16"/>
       <c r="X99" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="Z99" s="4"/>
       <c r="AA99" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="AC99" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" spans="1:29" x14ac:dyDescent="0.2">
@@ -5448,13 +5186,13 @@
         <v>43536</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C100" s="16"/>
       <c r="D100" s="16"/>
       <c r="E100" s="16"/>
       <c r="F100" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G100" s="16"/>
       <c r="H100" s="16"/>
@@ -5462,23 +5200,23 @@
       <c r="J100" s="16"/>
       <c r="K100" s="16"/>
       <c r="L100" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="M100" s="16"/>
       <c r="N100" s="16"/>
       <c r="O100" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P100" s="16"/>
       <c r="Q100" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="R100" s="16"/>
       <c r="S100" s="16"/>
       <c r="T100" s="16"/>
       <c r="U100" s="16"/>
       <c r="V100" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="W100" s="16"/>
       <c r="X100" s="26"/>
@@ -5489,13 +5227,13 @@
         <v>43537</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C101" s="16"/>
       <c r="D101" s="16"/>
       <c r="E101" s="16"/>
       <c r="F101" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G101" s="16"/>
       <c r="H101" s="16"/>
@@ -5503,23 +5241,23 @@
       <c r="J101" s="16"/>
       <c r="K101" s="16"/>
       <c r="L101" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M101" s="16"/>
       <c r="N101" s="16"/>
       <c r="O101" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="P101" s="18"/>
       <c r="Q101" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="R101" s="16"/>
       <c r="S101" s="30"/>
       <c r="T101" s="16"/>
       <c r="U101" s="16"/>
       <c r="V101" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="W101" s="16"/>
       <c r="X101" s="16"/>
@@ -5530,7 +5268,7 @@
         <v>43538</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C102" s="16"/>
       <c r="D102" s="16"/>
@@ -5541,23 +5279,23 @@
       <c r="J102" s="16"/>
       <c r="K102" s="16"/>
       <c r="L102" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M102" s="16"/>
       <c r="N102" s="16"/>
       <c r="O102" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="P102" s="16"/>
       <c r="Q102" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="R102" s="16"/>
       <c r="S102" s="30"/>
       <c r="T102" s="16"/>
       <c r="U102" s="16"/>
       <c r="V102" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="W102" s="16"/>
       <c r="X102" s="16"/>
@@ -5568,7 +5306,7 @@
         <v>43539</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C103" s="16"/>
       <c r="D103" s="16"/>
@@ -5576,37 +5314,37 @@
       <c r="F103" s="16"/>
       <c r="G103" s="16"/>
       <c r="H103" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I103" s="16"/>
       <c r="J103" s="16"/>
       <c r="K103" s="16"/>
       <c r="L103" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="M103" s="16"/>
       <c r="N103" s="16"/>
       <c r="O103" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P103" s="16"/>
       <c r="Q103" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="R103" s="16"/>
       <c r="S103" s="16"/>
       <c r="T103" s="16"/>
       <c r="U103" s="16"/>
       <c r="V103" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="W103" s="16"/>
       <c r="X103" s="16"/>
       <c r="Z103" s="4" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="AA103" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" spans="1:29" x14ac:dyDescent="0.2">
@@ -5614,18 +5352,18 @@
         <v>43540</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C104" s="22"/>
       <c r="D104" s="22"/>
       <c r="E104" s="16"/>
       <c r="F104" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G104" s="16"/>
       <c r="H104" s="22"/>
       <c r="I104" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="J104" s="16"/>
       <c r="K104" s="22"/>
@@ -5633,7 +5371,7 @@
       <c r="M104" s="22"/>
       <c r="N104" s="16"/>
       <c r="O104" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="P104" s="22"/>
       <c r="Q104" s="22"/>
@@ -5644,7 +5382,7 @@
       <c r="V104" s="22"/>
       <c r="W104" s="16"/>
       <c r="X104" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Z104" s="4"/>
     </row>
@@ -5653,18 +5391,18 @@
         <v>43541</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C105" s="22"/>
       <c r="D105" s="22"/>
       <c r="E105" s="16"/>
       <c r="F105" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G105" s="16"/>
       <c r="H105" s="22"/>
       <c r="I105" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="J105" s="16"/>
       <c r="K105" s="22"/>
@@ -5672,7 +5410,7 @@
       <c r="M105" s="22"/>
       <c r="N105" s="16"/>
       <c r="O105" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="P105" s="22"/>
       <c r="Q105" s="22"/>
@@ -5683,7 +5421,7 @@
       <c r="V105" s="22"/>
       <c r="W105" s="16"/>
       <c r="X105" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Z105" s="4"/>
     </row>
@@ -5692,47 +5430,47 @@
         <v>43542</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D106" s="16"/>
       <c r="E106" s="16"/>
       <c r="F106" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G106" s="16"/>
       <c r="H106" s="16"/>
       <c r="I106" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="J106" s="16"/>
       <c r="K106" s="16"/>
       <c r="L106" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M106" s="16"/>
       <c r="N106" s="16"/>
       <c r="O106" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="P106" s="16"/>
       <c r="Q106" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="R106" s="16"/>
       <c r="S106" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="T106" s="16"/>
       <c r="U106" s="16"/>
       <c r="V106" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="W106" s="16"/>
       <c r="X106" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="Z106" s="4"/>
     </row>
@@ -5741,15 +5479,15 @@
         <v>43543</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D107" s="16"/>
       <c r="E107" s="16"/>
       <c r="F107" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G107" s="16"/>
       <c r="H107" s="16"/>
@@ -5757,16 +5495,16 @@
       <c r="J107" s="16"/>
       <c r="K107" s="16"/>
       <c r="L107" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M107" s="16"/>
       <c r="N107" s="16"/>
       <c r="O107" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="P107" s="16"/>
       <c r="Q107" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="R107" s="16"/>
       <c r="S107" s="16"/>
@@ -5782,15 +5520,15 @@
         <v>43544</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D108" s="18"/>
       <c r="E108" s="16"/>
       <c r="F108" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G108" s="16"/>
       <c r="H108" s="30"/>
@@ -5798,16 +5536,16 @@
       <c r="J108" s="16"/>
       <c r="K108" s="30"/>
       <c r="L108" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="M108" s="16"/>
       <c r="N108" s="16"/>
       <c r="O108" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P108" s="18"/>
       <c r="Q108" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="R108" s="16"/>
       <c r="S108" s="16"/>
@@ -5823,15 +5561,15 @@
         <v>43545</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D109" s="16"/>
       <c r="E109" s="16"/>
       <c r="F109" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G109" s="16"/>
       <c r="H109" s="30"/>
@@ -5839,16 +5577,16 @@
       <c r="J109" s="16"/>
       <c r="K109" s="30"/>
       <c r="L109" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="M109" s="16"/>
       <c r="N109" s="16"/>
       <c r="O109" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P109" s="18"/>
       <c r="Q109" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="R109" s="16"/>
       <c r="S109" s="18"/>
@@ -5859,7 +5597,7 @@
       <c r="X109" s="16"/>
       <c r="Z109" s="4"/>
       <c r="AB109" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" spans="1:29" x14ac:dyDescent="0.2">
@@ -5867,15 +5605,15 @@
         <v>43546</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D110" s="16"/>
       <c r="E110" s="16"/>
       <c r="F110" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G110" s="16"/>
       <c r="H110" s="16"/>
@@ -5883,16 +5621,16 @@
       <c r="J110" s="16"/>
       <c r="K110" s="16"/>
       <c r="L110" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M110" s="16"/>
       <c r="N110" s="16"/>
       <c r="O110" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="P110" s="16"/>
       <c r="Q110" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="R110" s="16"/>
       <c r="S110" s="16"/>
@@ -5903,7 +5641,7 @@
       <c r="X110" s="16"/>
       <c r="Z110" s="4"/>
       <c r="AB110" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" spans="1:29" x14ac:dyDescent="0.2">
@@ -5911,10 +5649,10 @@
         <v>43547</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D111" s="22"/>
       <c r="E111" s="16"/>
@@ -5925,7 +5663,7 @@
       <c r="J111" s="16"/>
       <c r="K111" s="22"/>
       <c r="L111" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="M111" s="22"/>
       <c r="N111" s="16"/>
@@ -5934,12 +5672,12 @@
       <c r="Q111" s="22"/>
       <c r="R111" s="16"/>
       <c r="S111" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="T111" s="21"/>
       <c r="U111" s="16"/>
       <c r="V111" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="W111" s="16"/>
       <c r="X111" s="21"/>
@@ -5950,10 +5688,10 @@
         <v>43548</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D112" s="22"/>
       <c r="E112" s="16"/>
@@ -5964,7 +5702,7 @@
       <c r="J112" s="16"/>
       <c r="K112" s="22"/>
       <c r="L112" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="M112" s="22"/>
       <c r="N112" s="16"/>
@@ -5973,18 +5711,18 @@
       <c r="Q112" s="22"/>
       <c r="R112" s="16"/>
       <c r="S112" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="T112" s="22"/>
       <c r="U112" s="16"/>
       <c r="V112" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="W112" s="16"/>
       <c r="X112" s="22"/>
       <c r="Z112" s="4"/>
       <c r="AA112" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" spans="1:28" x14ac:dyDescent="0.2">
@@ -5992,51 +5730,51 @@
         <v>43549</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D113" s="16"/>
       <c r="E113" s="16"/>
       <c r="F113" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G113" s="16"/>
       <c r="H113" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I113" s="16"/>
       <c r="J113" s="16"/>
       <c r="K113" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="L113" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="M113" s="16"/>
       <c r="N113" s="16"/>
       <c r="O113" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="P113" s="18"/>
       <c r="Q113" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="R113" s="16"/>
       <c r="S113" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="T113" s="16"/>
       <c r="U113" s="16"/>
       <c r="V113" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="W113" s="16"/>
       <c r="X113" s="16"/>
       <c r="Z113" s="4"/>
       <c r="AB113" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" spans="1:28" x14ac:dyDescent="0.2">
@@ -6044,30 +5782,30 @@
         <v>43550</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D114" s="16"/>
       <c r="E114" s="16"/>
       <c r="F114" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G114" s="16"/>
       <c r="H114" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I114" s="16"/>
       <c r="J114" s="16"/>
       <c r="K114" s="26"/>
       <c r="L114" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="M114" s="16"/>
       <c r="N114" s="16"/>
       <c r="O114" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="P114" s="18"/>
       <c r="Q114" s="26"/>
@@ -6085,31 +5823,31 @@
         <v>43551</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C115" s="16"/>
       <c r="D115" s="18"/>
       <c r="E115" s="16"/>
       <c r="F115" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G115" s="16"/>
       <c r="H115" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="I115" s="30"/>
       <c r="J115" s="16"/>
       <c r="K115" s="16"/>
       <c r="L115" s="16"/>
       <c r="M115" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N115" s="16"/>
       <c r="O115" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="P115" s="43" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q115" s="16"/>
       <c r="R115" s="16"/>
@@ -6126,7 +5864,7 @@
         <v>43552</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C116" s="16"/>
       <c r="D116" s="18"/>
@@ -6134,20 +5872,20 @@
       <c r="F116" s="16"/>
       <c r="G116" s="16"/>
       <c r="I116" s="30" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="J116" s="16"/>
       <c r="K116" s="16"/>
       <c r="L116" s="16"/>
       <c r="M116" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N116" s="16"/>
       <c r="O116" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="P116" s="43" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q116" s="16"/>
       <c r="R116" s="16"/>
@@ -6157,11 +5895,11 @@
       <c r="V116" s="16"/>
       <c r="W116" s="16"/>
       <c r="X116" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="Z116" s="4"/>
       <c r="AA116" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" spans="1:28" x14ac:dyDescent="0.2">
@@ -6169,7 +5907,7 @@
         <v>43553</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C117" s="16"/>
       <c r="D117" s="16"/>
@@ -6178,20 +5916,20 @@
       <c r="G117" s="16"/>
       <c r="H117" s="16"/>
       <c r="I117" s="43" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J117" s="16"/>
       <c r="K117" s="16"/>
       <c r="L117" s="16"/>
       <c r="M117" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="N117" s="16"/>
       <c r="O117" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="P117" s="18" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="Q117" s="16"/>
       <c r="R117" s="16"/>
@@ -6201,7 +5939,7 @@
       <c r="V117" s="16"/>
       <c r="W117" s="16"/>
       <c r="X117" s="43" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Z117" s="4"/>
     </row>
@@ -6210,7 +5948,7 @@
         <v>43554</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C118" s="22"/>
       <c r="D118" s="22"/>
@@ -6219,11 +5957,11 @@
       <c r="G118" s="16"/>
       <c r="H118" s="22"/>
       <c r="I118" s="43" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J118" s="16"/>
       <c r="K118" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="L118" s="22"/>
       <c r="M118" s="22"/>
@@ -6231,7 +5969,7 @@
       <c r="O118" s="22"/>
       <c r="P118" s="22"/>
       <c r="Q118" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="R118" s="16"/>
       <c r="S118" s="21"/>
@@ -6240,7 +5978,7 @@
       <c r="V118" s="22"/>
       <c r="W118" s="16"/>
       <c r="X118" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Z118" s="4"/>
     </row>
@@ -6249,7 +5987,7 @@
         <v>43555</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C119" s="22"/>
       <c r="D119" s="22"/>
@@ -6258,11 +5996,11 @@
       <c r="G119" s="16"/>
       <c r="H119" s="22"/>
       <c r="I119" s="43" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J119" s="16"/>
       <c r="K119" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="L119" s="33"/>
       <c r="M119" s="22"/>
@@ -6270,7 +6008,7 @@
       <c r="O119" s="22"/>
       <c r="P119" s="33"/>
       <c r="Q119" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="R119" s="16"/>
       <c r="S119" s="22"/>
@@ -6279,7 +6017,7 @@
       <c r="V119" s="22"/>
       <c r="W119" s="16"/>
       <c r="X119" s="23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Z119" s="4"/>
     </row>
@@ -6288,43 +6026,43 @@
         <v>43556</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C120" s="16"/>
       <c r="D120" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E120" s="16"/>
       <c r="F120" s="16"/>
       <c r="G120" s="16"/>
       <c r="H120" s="16"/>
       <c r="I120" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="J120" s="16"/>
       <c r="K120" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="L120" s="16"/>
       <c r="M120" s="16"/>
       <c r="N120" s="16"/>
       <c r="O120" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="P120" s="16"/>
       <c r="Q120" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="R120" s="16"/>
       <c r="S120" s="16"/>
       <c r="T120" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="U120" s="16"/>
       <c r="V120" s="16"/>
       <c r="W120" s="16"/>
       <c r="X120" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="Z120" s="4"/>
     </row>
@@ -6333,18 +6071,18 @@
         <v>43557</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C121" s="16"/>
       <c r="D121" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E121" s="34"/>
       <c r="F121" s="16"/>
       <c r="G121" s="34"/>
       <c r="H121" s="16"/>
       <c r="I121" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="J121" s="34"/>
       <c r="K121" s="16"/>
@@ -6357,13 +6095,13 @@
       <c r="R121" s="34"/>
       <c r="S121" s="16"/>
       <c r="T121" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="U121" s="34"/>
       <c r="V121" s="16"/>
       <c r="W121" s="34"/>
       <c r="X121" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="Z121" s="4"/>
     </row>
